--- a/Brasil-HIV.xlsx
+++ b/Brasil-HIV.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadu\Documents\Trabalho-Final-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4D5F0D3C-519E-4FCF-A5AF-FC4B7E0CD45B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CB0422-532C-406D-A678-033727A86509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores HIV-AIDS - Brasil" sheetId="1" r:id="rId1"/>
     <sheet name="notificados" sheetId="10" r:id="rId2"/>
     <sheet name="exposicao2" sheetId="9" r:id="rId3"/>
     <sheet name="exposicao" sheetId="8" r:id="rId4"/>
-    <sheet name="escolaridade" sheetId="7" r:id="rId5"/>
-    <sheet name="cor" sheetId="6" r:id="rId6"/>
-    <sheet name="obitos" sheetId="5" r:id="rId7"/>
-    <sheet name="casos" sheetId="2" r:id="rId8"/>
+    <sheet name="casos" sheetId="2" r:id="rId5"/>
+    <sheet name="escolaridade" sheetId="7" r:id="rId6"/>
+    <sheet name="cor" sheetId="6" r:id="rId7"/>
+    <sheet name="obitos" sheetId="5" r:id="rId8"/>
     <sheet name="taxa_deteccao" sheetId="3" r:id="rId9"/>
     <sheet name="gestantes" sheetId="4" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -238,8 +248,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +394,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -737,7 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -750,6 +768,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1108,11 +1128,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:G129"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,24 +1454,24 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -4712,24 +4732,24 @@
       </c>
     </row>
     <row r="87" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -5232,24 +5252,24 @@
       </c>
     </row>
     <row r="98" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -5752,24 +5772,24 @@
       </c>
     </row>
     <row r="109" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -6172,24 +6192,24 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -6592,24 +6612,24 @@
       </c>
     </row>
     <row r="127" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
@@ -6679,24 +6699,24 @@
       </c>
     </row>
     <row r="131" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -6780,10 +6800,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -6943,7 +6963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7002,16 +7022,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
@@ -7061,354 +7081,355 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5">
-        <v>164678</v>
-      </c>
-      <c r="C2" s="5">
-        <v>86843</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4645</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5066</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5518</v>
-      </c>
-      <c r="G2" s="5">
-        <v>6067</v>
-      </c>
-      <c r="H2" s="5">
-        <v>6705</v>
-      </c>
-      <c r="I2" s="5">
-        <v>7203</v>
-      </c>
-      <c r="J2" s="5">
-        <v>7553</v>
-      </c>
-      <c r="K2" s="5">
-        <v>7269</v>
-      </c>
-      <c r="L2" s="5">
-        <v>6920</v>
-      </c>
-      <c r="M2" s="5">
-        <v>6488</v>
-      </c>
-      <c r="N2" s="5">
-        <v>6572</v>
-      </c>
-      <c r="O2" s="5">
-        <v>5760</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C2" s="4">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="J2" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>36.9</v>
+      </c>
+      <c r="L2" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="M2" s="4">
+        <v>38.9</v>
+      </c>
+      <c r="N2" s="4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="O2" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="P2" s="4">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5">
-        <v>169181</v>
-      </c>
-      <c r="C3" s="5">
-        <v>77560</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7143</v>
-      </c>
-      <c r="E3" s="5">
-        <v>7556</v>
-      </c>
-      <c r="F3" s="5">
-        <v>7684</v>
-      </c>
-      <c r="G3" s="5">
-        <v>8166</v>
-      </c>
-      <c r="H3" s="5">
-        <v>8398</v>
-      </c>
-      <c r="I3" s="5">
-        <v>8499</v>
-      </c>
-      <c r="J3" s="5">
-        <v>8647</v>
-      </c>
-      <c r="K3" s="5">
-        <v>7850</v>
-      </c>
-      <c r="L3" s="5">
-        <v>7210</v>
-      </c>
-      <c r="M3" s="5">
-        <v>6500</v>
-      </c>
-      <c r="N3" s="5">
-        <v>6369</v>
-      </c>
-      <c r="O3" s="5">
-        <v>5533</v>
-      </c>
-      <c r="P3" s="5">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>27.7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43.4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>41.9</v>
+      </c>
+      <c r="I3" s="4">
+        <v>41.9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>41.3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="L3" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>39</v>
+      </c>
+      <c r="N3" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="O3" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="P3" s="4">
+        <v>39.1</v>
+      </c>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="5">
-        <v>60024</v>
-      </c>
-      <c r="C4" s="5">
-        <v>51001</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1178</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1074</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1055</v>
+      <c r="B4" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.8</v>
       </c>
       <c r="G4" s="4">
-        <v>933</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H4" s="4">
-        <v>913</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I4" s="4">
-        <v>749</v>
+        <v>3.7</v>
       </c>
       <c r="J4" s="4">
-        <v>723</v>
+        <v>3.5</v>
       </c>
       <c r="K4" s="4">
-        <v>592</v>
+        <v>3</v>
       </c>
       <c r="L4" s="4">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="M4" s="4">
-        <v>430</v>
+        <v>2.6</v>
       </c>
       <c r="N4" s="4">
-        <v>358</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O4" s="4">
-        <v>341</v>
+        <v>2.4</v>
       </c>
       <c r="P4" s="4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="5">
-        <v>1173</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1088</v>
+      <c r="B5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.4</v>
       </c>
       <c r="D5" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4">
-        <v>13</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="5">
-        <v>1193</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1146</v>
+      <c r="B6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.4</v>
       </c>
       <c r="D6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="5">
-        <v>1327</v>
+      <c r="B7" s="4">
+        <v>0.3</v>
       </c>
       <c r="C7" s="4">
-        <v>146</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="4">
-        <v>52</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="4">
-        <v>73</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="4">
-        <v>75</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="4">
-        <v>88</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="4">
-        <v>87</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="4">
-        <v>108</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="4">
-        <v>114</v>
+        <v>0.5</v>
       </c>
       <c r="K7" s="4">
-        <v>119</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="4">
-        <v>119</v>
+        <v>0.7</v>
       </c>
       <c r="M7" s="4">
-        <v>125</v>
+        <v>0.7</v>
       </c>
       <c r="N7" s="4">
-        <v>94</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="4">
-        <v>90</v>
+        <v>0.6</v>
       </c>
       <c r="P7" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="5">
-        <v>91647</v>
-      </c>
-      <c r="C8" s="5">
-        <v>48820</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3432</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3568</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3786</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3769</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3910</v>
-      </c>
-      <c r="I8" s="5">
-        <v>3730</v>
-      </c>
-      <c r="J8" s="5">
-        <v>3881</v>
-      </c>
-      <c r="K8" s="5">
-        <v>3871</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3473</v>
-      </c>
-      <c r="M8" s="5">
-        <v>3130</v>
-      </c>
-      <c r="N8" s="5">
-        <v>2732</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2570</v>
+      <c r="B8" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="G8" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L8" s="4">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="N8" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="O8" s="4">
+        <v>18</v>
       </c>
       <c r="P8" s="4">
-        <v>975</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -7417,7 +7438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7932,7 +7953,322 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>966058</v>
+      </c>
+      <c r="C2" s="5">
+        <v>465936</v>
+      </c>
+      <c r="D2" s="5">
+        <v>38379</v>
+      </c>
+      <c r="E2" s="5">
+        <v>40882</v>
+      </c>
+      <c r="F2" s="5">
+        <v>40818</v>
+      </c>
+      <c r="G2" s="5">
+        <v>40409</v>
+      </c>
+      <c r="H2" s="5">
+        <v>42355</v>
+      </c>
+      <c r="I2" s="5">
+        <v>42086</v>
+      </c>
+      <c r="J2" s="5">
+        <v>42934</v>
+      </c>
+      <c r="K2" s="5">
+        <v>41746</v>
+      </c>
+      <c r="L2" s="5">
+        <v>40506</v>
+      </c>
+      <c r="M2" s="5">
+        <v>38924</v>
+      </c>
+      <c r="N2" s="5">
+        <v>37999</v>
+      </c>
+      <c r="O2" s="5">
+        <v>37161</v>
+      </c>
+      <c r="P2" s="5">
+        <v>15923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>633462</v>
+      </c>
+      <c r="C3" s="5">
+        <v>309473</v>
+      </c>
+      <c r="D3" s="5">
+        <v>23040</v>
+      </c>
+      <c r="E3" s="5">
+        <v>24520</v>
+      </c>
+      <c r="F3" s="5">
+        <v>24769</v>
+      </c>
+      <c r="G3" s="5">
+        <v>25109</v>
+      </c>
+      <c r="H3" s="5">
+        <v>26634</v>
+      </c>
+      <c r="I3" s="5">
+        <v>26722</v>
+      </c>
+      <c r="J3" s="5">
+        <v>27849</v>
+      </c>
+      <c r="K3" s="5">
+        <v>27582</v>
+      </c>
+      <c r="L3" s="5">
+        <v>27476</v>
+      </c>
+      <c r="M3" s="5">
+        <v>26661</v>
+      </c>
+      <c r="N3" s="5">
+        <v>26475</v>
+      </c>
+      <c r="O3" s="5">
+        <v>26029</v>
+      </c>
+      <c r="P3" s="5">
+        <v>11123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>332505</v>
+      </c>
+      <c r="C4" s="5">
+        <v>156438</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15336</v>
+      </c>
+      <c r="E4" s="5">
+        <v>16353</v>
+      </c>
+      <c r="F4" s="5">
+        <v>16044</v>
+      </c>
+      <c r="G4" s="5">
+        <v>15297</v>
+      </c>
+      <c r="H4" s="5">
+        <v>15718</v>
+      </c>
+      <c r="I4" s="5">
+        <v>15362</v>
+      </c>
+      <c r="J4" s="5">
+        <v>15079</v>
+      </c>
+      <c r="K4" s="5">
+        <v>14160</v>
+      </c>
+      <c r="L4" s="5">
+        <v>13022</v>
+      </c>
+      <c r="M4" s="5">
+        <v>12255</v>
+      </c>
+      <c r="N4" s="5">
+        <v>11515</v>
+      </c>
+      <c r="O4" s="5">
+        <v>11130</v>
+      </c>
+      <c r="P4" s="5">
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17341</v>
+      </c>
+      <c r="C5" s="5">
+        <v>11975</v>
+      </c>
+      <c r="D5" s="4">
+        <v>582</v>
+      </c>
+      <c r="E5" s="4">
+        <v>579</v>
+      </c>
+      <c r="F5" s="4">
+        <v>552</v>
+      </c>
+      <c r="G5" s="4">
+        <v>537</v>
+      </c>
+      <c r="H5" s="4">
+        <v>466</v>
+      </c>
+      <c r="I5" s="4">
+        <v>480</v>
+      </c>
+      <c r="J5" s="4">
+        <v>436</v>
+      </c>
+      <c r="K5" s="4">
+        <v>386</v>
+      </c>
+      <c r="L5" s="4">
+        <v>336</v>
+      </c>
+      <c r="M5" s="4">
+        <v>332</v>
+      </c>
+      <c r="N5" s="4">
+        <v>290</v>
+      </c>
+      <c r="O5" s="4">
+        <v>265</v>
+      </c>
+      <c r="P5" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>108125</v>
+      </c>
+      <c r="C6" s="5">
+        <v>52665</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3359</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3652</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3827</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3886</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4335</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4737</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4952</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5003</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5103</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4879</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4950</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4695</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2082</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8546,12 +8882,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8610,309 +8946,325 @@
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5">
-        <v>234502</v>
-      </c>
-      <c r="C2" s="5">
-        <v>89570</v>
-      </c>
-      <c r="D2" s="5">
-        <v>12724</v>
-      </c>
-      <c r="E2" s="5">
-        <v>13496</v>
-      </c>
-      <c r="F2" s="5">
-        <v>13385</v>
-      </c>
-      <c r="G2" s="5">
-        <v>13621</v>
-      </c>
-      <c r="H2" s="5">
-        <v>14065</v>
-      </c>
-      <c r="I2" s="5">
-        <v>13662</v>
-      </c>
-      <c r="J2" s="5">
-        <v>13031</v>
-      </c>
-      <c r="K2" s="5">
-        <v>11809</v>
-      </c>
-      <c r="L2" s="5">
-        <v>10690</v>
-      </c>
-      <c r="M2" s="5">
-        <v>9414</v>
-      </c>
-      <c r="N2" s="5">
-        <v>8817</v>
-      </c>
-      <c r="O2" s="5">
-        <v>7476</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2742</v>
+      <c r="B2" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>46.9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>46.9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45.3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44.9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="J2" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M2" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="N2" s="4">
+        <v>39</v>
+      </c>
+      <c r="O2" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="P2" s="4">
+        <v>37.4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5">
-        <v>52675</v>
-      </c>
-      <c r="C3" s="5">
-        <v>18116</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2923</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3017</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2999</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3012</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3082</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3101</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3073</v>
-      </c>
-      <c r="K3" s="5">
-        <v>2846</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2648</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2609</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2399</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2082</v>
+      <c r="B3" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="O3" s="4">
+        <v>10.4</v>
       </c>
       <c r="P3" s="4">
-        <v>768</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5">
-        <v>2575</v>
+      <c r="B4" s="4">
+        <v>0.3</v>
       </c>
       <c r="C4" s="4">
-        <v>985</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="4">
-        <v>170</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="4">
-        <v>128</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="4">
-        <v>136</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="4">
-        <v>140</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="4">
-        <v>149</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="4">
-        <v>149</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="4">
-        <v>128</v>
+        <v>0.4</v>
       </c>
       <c r="K4" s="4">
-        <v>118</v>
+        <v>0.4</v>
       </c>
       <c r="L4" s="4">
-        <v>112</v>
+        <v>0.4</v>
       </c>
       <c r="M4" s="4">
-        <v>103</v>
+        <v>0.4</v>
       </c>
       <c r="N4" s="4">
-        <v>101</v>
+        <v>0.4</v>
       </c>
       <c r="O4" s="4">
-        <v>106</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="4">
-        <v>50</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5">
-        <v>178529</v>
-      </c>
-      <c r="C5" s="5">
-        <v>46661</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8699</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9487</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10170</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10793</v>
-      </c>
-      <c r="H5" s="5">
-        <v>11409</v>
-      </c>
-      <c r="I5" s="5">
-        <v>12189</v>
-      </c>
-      <c r="J5" s="5">
-        <v>12967</v>
-      </c>
-      <c r="K5" s="5">
-        <v>12390</v>
-      </c>
-      <c r="L5" s="5">
-        <v>11154</v>
-      </c>
-      <c r="M5" s="5">
-        <v>10201</v>
-      </c>
-      <c r="N5" s="5">
-        <v>10038</v>
-      </c>
-      <c r="O5" s="5">
-        <v>9032</v>
-      </c>
-      <c r="P5" s="5">
-        <v>3339</v>
+      <c r="B5" s="4">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>36.4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J5" s="4">
+        <v>41</v>
+      </c>
+      <c r="K5" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="L5" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="M5" s="4">
+        <v>42.8</v>
+      </c>
+      <c r="N5" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="O5" s="4">
+        <v>45.3</v>
+      </c>
+      <c r="P5" s="4">
+        <v>45.5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5">
-        <v>1386</v>
+      <c r="B6" s="4">
+        <v>0.2</v>
       </c>
       <c r="C6" s="4">
-        <v>343</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="4">
-        <v>92</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="4">
-        <v>68</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="4">
-        <v>81</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="4">
-        <v>104</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="4">
-        <v>93</v>
+        <v>0.3</v>
       </c>
       <c r="I6" s="4">
-        <v>105</v>
+        <v>0.3</v>
       </c>
       <c r="J6" s="4">
-        <v>89</v>
+        <v>0.3</v>
       </c>
       <c r="K6" s="4">
-        <v>74</v>
+        <v>0.3</v>
       </c>
       <c r="L6" s="4">
-        <v>77</v>
+        <v>0.3</v>
       </c>
       <c r="M6" s="4">
-        <v>82</v>
+        <v>0.3</v>
       </c>
       <c r="N6" s="4">
-        <v>72</v>
+        <v>0.3</v>
       </c>
       <c r="O6" s="4">
-        <v>73</v>
+        <v>0.4</v>
       </c>
       <c r="P6" s="4">
-        <v>33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5">
-        <v>273919</v>
-      </c>
-      <c r="C7" s="5">
-        <v>248716</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2547</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2610</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2668</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2421</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2559</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2219</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2361</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1990</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1596</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1439</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1204</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1180</v>
+      <c r="B7" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C7" s="4">
+        <v>61.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>6</v>
+      </c>
+      <c r="N7" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>5.9</v>
       </c>
       <c r="P7" s="4">
-        <v>409</v>
-      </c>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9065,323 +9417,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2008</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2009</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2010</v>
-      </c>
-      <c r="H1" s="3">
-        <v>2011</v>
-      </c>
-      <c r="I1" s="3">
-        <v>2012</v>
-      </c>
-      <c r="J1" s="3">
-        <v>2013</v>
-      </c>
-      <c r="K1" s="3">
-        <v>2014</v>
-      </c>
-      <c r="L1" s="3">
-        <v>2015</v>
-      </c>
-      <c r="M1" s="3">
-        <v>2016</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2017</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2018</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5">
-        <v>966058</v>
-      </c>
-      <c r="C2" s="5">
-        <v>465936</v>
-      </c>
-      <c r="D2" s="5">
-        <v>38379</v>
-      </c>
-      <c r="E2" s="5">
-        <v>40882</v>
-      </c>
-      <c r="F2" s="5">
-        <v>40818</v>
-      </c>
-      <c r="G2" s="5">
-        <v>40409</v>
-      </c>
-      <c r="H2" s="5">
-        <v>42355</v>
-      </c>
-      <c r="I2" s="5">
-        <v>42086</v>
-      </c>
-      <c r="J2" s="5">
-        <v>42934</v>
-      </c>
-      <c r="K2" s="5">
-        <v>41746</v>
-      </c>
-      <c r="L2" s="5">
-        <v>40506</v>
-      </c>
-      <c r="M2" s="5">
-        <v>38924</v>
-      </c>
-      <c r="N2" s="5">
-        <v>37999</v>
-      </c>
-      <c r="O2" s="5">
-        <v>37161</v>
-      </c>
-      <c r="P2" s="5">
-        <v>15923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
-        <v>633462</v>
-      </c>
-      <c r="C3" s="5">
-        <v>309473</v>
-      </c>
-      <c r="D3" s="5">
-        <v>23040</v>
-      </c>
-      <c r="E3" s="5">
-        <v>24520</v>
-      </c>
-      <c r="F3" s="5">
-        <v>24769</v>
-      </c>
-      <c r="G3" s="5">
-        <v>25109</v>
-      </c>
-      <c r="H3" s="5">
-        <v>26634</v>
-      </c>
-      <c r="I3" s="5">
-        <v>26722</v>
-      </c>
-      <c r="J3" s="5">
-        <v>27849</v>
-      </c>
-      <c r="K3" s="5">
-        <v>27582</v>
-      </c>
-      <c r="L3" s="5">
-        <v>27476</v>
-      </c>
-      <c r="M3" s="5">
-        <v>26661</v>
-      </c>
-      <c r="N3" s="5">
-        <v>26475</v>
-      </c>
-      <c r="O3" s="5">
-        <v>26029</v>
-      </c>
-      <c r="P3" s="5">
-        <v>11123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
-        <v>332505</v>
-      </c>
-      <c r="C4" s="5">
-        <v>156438</v>
-      </c>
-      <c r="D4" s="5">
-        <v>15336</v>
-      </c>
-      <c r="E4" s="5">
-        <v>16353</v>
-      </c>
-      <c r="F4" s="5">
-        <v>16044</v>
-      </c>
-      <c r="G4" s="5">
-        <v>15297</v>
-      </c>
-      <c r="H4" s="5">
-        <v>15718</v>
-      </c>
-      <c r="I4" s="5">
-        <v>15362</v>
-      </c>
-      <c r="J4" s="5">
-        <v>15079</v>
-      </c>
-      <c r="K4" s="5">
-        <v>14160</v>
-      </c>
-      <c r="L4" s="5">
-        <v>13022</v>
-      </c>
-      <c r="M4" s="5">
-        <v>12255</v>
-      </c>
-      <c r="N4" s="5">
-        <v>11515</v>
-      </c>
-      <c r="O4" s="5">
-        <v>11130</v>
-      </c>
-      <c r="P4" s="5">
-        <v>4796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <v>17341</v>
-      </c>
-      <c r="C5" s="5">
-        <v>11975</v>
-      </c>
-      <c r="D5" s="4">
-        <v>582</v>
-      </c>
-      <c r="E5" s="4">
-        <v>579</v>
-      </c>
-      <c r="F5" s="4">
-        <v>552</v>
-      </c>
-      <c r="G5" s="4">
-        <v>537</v>
-      </c>
-      <c r="H5" s="4">
-        <v>466</v>
-      </c>
-      <c r="I5" s="4">
-        <v>480</v>
-      </c>
-      <c r="J5" s="4">
-        <v>436</v>
-      </c>
-      <c r="K5" s="4">
-        <v>386</v>
-      </c>
-      <c r="L5" s="4">
-        <v>336</v>
-      </c>
-      <c r="M5" s="4">
-        <v>332</v>
-      </c>
-      <c r="N5" s="4">
-        <v>290</v>
-      </c>
-      <c r="O5" s="4">
-        <v>265</v>
-      </c>
-      <c r="P5" s="4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>108125</v>
-      </c>
-      <c r="C6" s="5">
-        <v>52665</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3359</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3652</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3827</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3886</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4335</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4737</v>
-      </c>
-      <c r="J6" s="5">
-        <v>4952</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5003</v>
-      </c>
-      <c r="L6" s="5">
-        <v>5103</v>
-      </c>
-      <c r="M6" s="5">
-        <v>4879</v>
-      </c>
-      <c r="N6" s="5">
-        <v>4950</v>
-      </c>
-      <c r="O6" s="5">
-        <v>4695</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2082</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
